--- a/Keccak_Ctrl.xlsx
+++ b/Keccak_Ctrl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fossu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fossu\Desktop\ML_DSA_Syn_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83920403-0912-4AAF-B369-5F3BE86E00AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956A6353-9B5A-4FCB-8119-3B897E5C2B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-9510" windowWidth="18240" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
   <si>
     <t>SINVER</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,9 +136,6 @@
     <t>H(𝜌 || t1) = tr</t>
   </si>
   <si>
-    <t>H(𝜉+x02+x02)</t>
-  </si>
-  <si>
     <t>tr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,9 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>𝜇</t>
-  </si>
-  <si>
     <t>w1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,37 +191,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>H(𝜇 || 𝐰′1)</t>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w'1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c~'(64bit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outside Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>𝜉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+x04+x04)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>H(pk)</t>
-  </si>
-  <si>
-    <t>H(𝜇 || 𝐰′1)</t>
-  </si>
-  <si>
-    <t>2,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>w'1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c~'(64bit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outside Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>H(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>𝑡𝑟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> || </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Cambria Math"/>
+        <family val="1"/>
+      </rPr>
+      <t>𝑀′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +318,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +373,39 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -328,11 +444,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -613,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>9</v>
@@ -647,11 +767,14 @@
       <c r="B2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="87.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -674,6 +797,9 @@
       <c r="B4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
@@ -688,6 +814,9 @@
       <c r="B5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
@@ -702,6 +831,9 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
@@ -716,6 +848,9 @@
       <c r="B7" s="1">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
@@ -744,11 +879,14 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -758,17 +896,20 @@
       <c r="B11" s="1">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -778,14 +919,17 @@
       <c r="B12" s="1">
         <v>3</v>
       </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
       <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" t="s">
         <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -809,14 +953,17 @@
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
         <v>40</v>
-      </c>
-      <c r="H14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -826,11 +973,14 @@
       <c r="B15" s="1">
         <v>10</v>
       </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
       <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -852,11 +1002,14 @@
       <c r="B18" s="1">
         <v>1</v>
       </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -864,7 +1017,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>11</v>
@@ -874,63 +1027,69 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="9">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="E20" s="10"/>
       <c r="H20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6">
+    <row r="21" spans="1:8" ht="87.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9">
         <v>5</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>36</v>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="9">
+        <v>8</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="6">
-        <v>8</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
+      <c r="C26" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -960,7 +1119,42 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
